--- a/UART/BaudCounts.xlsx
+++ b/UART/BaudCounts.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb196b337ea3bf2/Profe II/9n0/Interfaces de Computadora/Computer-Interfaces/UART/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{088C7E5F-C653-4B67-BB1A-94AE3E7D095B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{088C7E5F-C653-4B67-BB1A-94AE3E7D095B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC8CF61F-E9FD-46FE-9754-A25A1DB32D94}"/>
   <bookViews>
-    <workbookView xWindow="-69" yWindow="-69" windowWidth="22080" windowHeight="11880" xr2:uid="{82C66E7B-0D09-433B-B694-7B09AC66C0D8}"/>
+    <workbookView xWindow="38280" yWindow="2850" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{82C66E7B-0D09-433B-B694-7B09AC66C0D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Microprogramacion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>BAUDRATE</t>
   </si>
@@ -45,6 +46,93 @@
   </si>
   <si>
     <t>Clk Speed</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Parity</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>busy</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>Next Address</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Config Mode Din Structure</t>
+  </si>
+  <si>
+    <t>No Care</t>
+  </si>
+  <si>
+    <t>If Config = 1, s1 triggers</t>
+  </si>
+  <si>
+    <t>If Config = 1, s0 triggers</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>Bifurcacion 1</t>
+  </si>
+  <si>
+    <t>Bifurcacion 2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>Sending</t>
+  </si>
+  <si>
+    <t>while counter &lt; 10</t>
+  </si>
+  <si>
+    <t>confmode</t>
+  </si>
+  <si>
+    <t>Conf</t>
+  </si>
+  <si>
+    <t>DivClk</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>instructionCode</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Counter</t>
   </si>
 </sst>
 </file>
@@ -68,10 +156,69 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -80,8 +227,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C733BC01-C15D-46C3-B13A-45951B60DB22}">
   <dimension ref="A3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -493,4 +657,475 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CF736C-0833-415D-BC46-E0F8C295A07A}">
+  <dimension ref="A4:AA23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="M4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f>_xlfn.CONCAT(COUNT(C6:P6),"'b",_xlfn.CONCAT(C6:P6))</f>
+        <v>14'b10000001101000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" ref="Q7:Q9" si="0">_xlfn.CONCAT(COUNT(C7:P7),"'b",_xlfn.CONCAT(C7:P7))</f>
+        <v>14'b10110100010000</v>
+      </c>
+      <c r="T7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>14'b11101011100010</v>
+      </c>
+      <c r="T8" s="1">
+        <v>7</v>
+      </c>
+      <c r="U8" s="1">
+        <v>6</v>
+      </c>
+      <c r="V8" s="1">
+        <v>5</v>
+      </c>
+      <c r="W8" s="1">
+        <v>4</v>
+      </c>
+      <c r="X8" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>14'b10101100000001</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7">
+        <v>6</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5</v>
+      </c>
+      <c r="L10" s="7">
+        <v>4</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="7">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
+        <v>11</v>
+      </c>
+      <c r="E23" s="7">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7">
+        <v>9</v>
+      </c>
+      <c r="G23" s="7">
+        <v>8</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>6</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5</v>
+      </c>
+      <c r="K23" s="7">
+        <v>4</v>
+      </c>
+      <c r="L23" s="7">
+        <v>3</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="T9:W9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>